--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_12-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_12-44.xlsx
@@ -71,6 +71,9 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>HEBTA C.M.D TAB</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -92,9 +95,18 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
   </si>
   <si>
     <t>8:0</t>
+  </si>
+  <si>
+    <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
     <t>Thursday, 8 January, 2026 12:44 PM</t>
@@ -868,7 +883,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -888,17 +903,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -906,7 +921,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -914,17 +929,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -932,7 +947,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -940,13 +955,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -966,13 +981,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>23.039999999999999</v>
+        <v>110</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -992,17 +1007,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>17</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1018,17 +1033,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1044,17 +1059,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1062,7 +1077,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1070,51 +1085,155 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
+        <v>33</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>5</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="K19" s="10">
-        <v>766.03999999999996</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="11">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
         <v>35</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c t="s" r="F20" s="12">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>25</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
         <v>36</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c t="s" r="I20" s="14">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
         <v>37</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>16</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c t="s" r="N21" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>14</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>30</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c t="s" r="N22" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="K23" s="10">
+        <v>1218.04</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c t="s" r="A24" s="11">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c t="s" r="F24" s="12">
+        <v>41</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c t="s" r="I24" s="14">
+        <v>42</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="68">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1167,10 +1286,22 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
